--- a/Assets/StreamingAssets/levels/MainMenu.xlsx
+++ b/Assets/StreamingAssets/levels/MainMenu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayi/Documents/GitHub/Project/Assets/StreamingAssets/levels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF1283-8498-7742-AF30-DA1CC9538020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA22D6C9-3A2E-4B0B-8EF8-D43D7912AE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="4340" windowWidth="19400" windowHeight="11480" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="11232" yWindow="2688" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Width</t>
   </si>
@@ -50,7 +50,12 @@
     <t>Background</t>
   </si>
   <si>
-    <t>BgTest.png</t>
+    <t>Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bg8.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -61,13 +66,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -97,7 +102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -113,9 +118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -259,7 +264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,7 +406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,38 +417,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -454,14 +462,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AEF038-7884-4C45-8363-3DD22CC55CD7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
